--- a/API 명세서.xlsx
+++ b/API 명세서.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="80">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,455 @@
   </si>
   <si>
     <t>/sign-in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">curl -v -X POST "http://localhost4000/api/v1/auth/sign-in" \
+ -d "userId=service123" \
+ -d "userPassword=P!sswOrd"
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content-Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반환하는 Response Body의 Content Type (application/json)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 결과에 대한 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 결과에 대한 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 요청시 사용될 access token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expires</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JWT access token의 만료 기간 (초 단위)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accesstoken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소셜 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트로부터 소셜 로그인으로 사용할 인증 서버를 받아와서 해당 인증 서버의 사용자 정보를 받아오고 그에 따른 로그인 및 회원가입 처리를 진행합니다. 만약 성공적으로 처리가 된다면 성공 메시지를 반환합니다.
+만약 데이터베이스 작업에서 실패한다면 실패 메시지를 반환합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sns/(oauthServer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">curl -v -X GET "http://localhost4000/api/v1/auth/sns/${oauthServer}"
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답 : 성공
+HTTP/1.1 200 OK
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "SU",
+  "message": "Success.",
+  "access_token": "{(ACCESS_TOKEN}",
+  "expires": 3600
+}
+응답 : 실패 (토큰 생성 실패)
+HTTP/1.1 500 Internal Server Error
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "TF",
+  "message": "Token creation Failed."
+}
+응답 : 실패 (데이터베이스 오류)
+HTTP/1.1 500 Internal Server Error
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "DBE",
+  "message": "Database Error."
+}
+응답 : 실패 (필수 데이터 미입력)
+HTTP/1.1 400 Bad Requeset
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "VF",
+  "message": "Varidation Failed."
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답 : 성공
+HTTP/1.1 200 OK
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "SU",
+  "message": "Success.",
+  "access_token": "{(ACCESS_TOKEN}",
+  "expires": 3600
+}
+응답 : 실패 (필수 데이터 미입력)
+HTTP/1.1 400 Bad Requeset
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "VF",
+  "message": "Varidation Failed."
+}
+응답 : 실패 (로그인 정보 불일치)
+HTTP/1.1 401 Unauthorized
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "SF",
+  "message": "Sign in Failed."
+}
+응답 : 실패 (필수 데이터 미입력)
+HTTP/1.1 400 Bad Requeset
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "VF",
+  "message": "Varidation Failed."
+}
+응답 : 실패 (토큰 생성 실패)
+HTTP/1.1 500 Internal Server Error
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "TF",
+  "message": "Token creation Failed."
+}
+응답 : 실패 (데이터베이스 오류)
+HTTP/1.1 500 Internal Server Error
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "DBE",
+  "message": "Database Error."
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 중복 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트로부터 아이디를 입력받아 해당하는 아이디가 이미 사용중인 아이디인지 확인합니다.
+중복되지 않은 아이디이면 성공처리를 합니다. 만약 중복되는 아이디라면 실패처리를 합니다. 
+데이터베이스 오류가 발생할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/id-check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복확인할 유저 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">curl -v -X POST "http://localhost4000/api/v1/auth/id-check" \
+ -d "userId=service123"
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답 : 성공
+HTTP/1.1 200 OK
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "SU",
+  "message": "Success."
+}
+응답 : 실패 (필수 데이터 미입력)
+HTTP/1.1 400 Bad Requeset
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "VF",
+  "message": "Varidation Failed."
+}
+응답 : 실패 (중복된 아이디)
+HTTP/1.1 400 Bad Requeset
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "DI",
+  "message": "Duplicated Id."
+}
+응답 : 실패 (데이터베이스 오류)
+HTTP/1.1 500 Internal Server Error
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "DBE",
+  "message": "Database Error."
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트로부터 이메일을 입력받아 해당하는 이메일이 이미 사용중인 이메일인지 확인하고 사용하고 있지 않은 이메일이라면 4자리의 인증코드를 해당 이메일로 전송합니다. 이메일 전송이 성공적으로 종료되었으면 성공처리를 합니다. 만약 중복된 이메일이거나 이메일 전송에 실패했으면 실패 러리를 합니다. 데이터베이스 오류가 발생할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/email-auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 번호를 전송할 유저 이메일
+(이메일 형태의 데이터)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">curl -v -X POST "http://localhost4000/api/v1/auth/email-auth" \
+ -d "userEmail=email@email.com"
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답 : 성공
+HTTP/1.1 200 OK
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "SU",
+  "message": "Success."
+}
+응답 : 실패 (필수 데이터 미입력)
+HTTP/1.1 400 Bad Requeset
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "VF",
+  "message": "Varidation Failed."
+}
+응답 : 실패 (중복된 이메일)
+HTTP/1.1 400 Bad Requeset
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "DE",
+  "message": "Duplicated email."
+}
+응답 : 실패 (이메일 전송 실패)
+HTTP/1.1 500 Internal Server Error
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "MF",
+  "message": "Mail send Failed."
+}
+응답 : 실패 (데이터베이스 오류)
+HTTP/1.1 500 Internal Server Error
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "DBE",
+  "message": "Database Error."
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 인증 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트로부터 이메일과 인증 번호를 입력받아 해당하는 이메일에 전송한 인증번호와 일치하는지 확인 합니다. 일치한다면 성공처리를 합니다. 만약 일치하지 않는다면 실패처리를 합니다. 데이터베이스 오류가 발생할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/email-auth-check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 번호를 확인할 유저 이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 확인할 인증 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">curl -v -X POST "http://localhost4000/api/v1/auth/email-auth-check" \
+ -d "userEmail=email@email.com" \
+ -d "authNumber=0123"
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답 : 성공
+HTTP/1.1 200 OK
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "SU",
+  "message": "Success."
+}
+응답 : 실패 (필수 데이터 미입력)
+HTTP/1.1 400 Bad Requeset
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "VF",
+  "message": "Varidation Failed."
+}
+응답 : 실패 (이메일 인증 실패)
+HTTP/1.1 401 Unauthorized
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "AF",
+  "message": "Authentication Failed."
+}
+응답 : 실패 (데이터베이스 오류)
+HTTP/1.1 500 Internal Server Error
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "DBE",
+  "message": "Database Error."
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답 : 성공
+HTTP/1.1 200 OK
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "SU",
+  "message": "Success."
+}
+응답 : 실패 (중복된 아이디)
+HTTP/1.1 400 Bad Requeset
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "DI",
+  "message": "Duplicated userId."
+}
+응답 : 실패 (필수 데이터 미입력)
+HTTP/1.1 400 Bad Requeset
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "VF",
+  "message": "Varidation Failed."
+}
+응답 : 실패 (중복된 이메일)
+HTTP/1.1 400 Bad Requeset
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "DE",
+  "message": "Duplicated email."
+}
+응답 : 실패 (이메일 인증 실패)
+HTTP/1.1 401 Unauthorized
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "AF",
+  "message": "Authentication Failed."
+}
+응답 : 실패 (데이터베이스 오류)
+HTTP/1.1 500 Internal Server Error
+Content-Type: application/json;charset=UTF-8
+{
+  "code": "DBE",
+  "message": "Database Error."
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 이메일 (이메일 형태의 데이터)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 비밀번호 (영문+숫자 8~13자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트로부터 아이디, 비밀번호, 이메일, 인증번호를 입력받아 회원가입 처리를 합니다. 정상적으로 회원가입이 완료되면 성공처리를 합니다. 만약 중복된 아이디, 중복된 이메일, 인증번호 불일치가 발생하면 실패처리를 합니다. 데이터베이스 오류가 발생할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sign-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">curl -v -X POST "http://localhost4000/api/v1/auth/sign-up" \
+ -d "userId=service123" \
+ -d "userPassword=PasswOrd" \
+ -d "userEmail=email@email.com" \
+ -d "authNumber=0123"
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +572,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +672,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -244,7 +710,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -670,13 +1136,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,6 +1207,150 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -749,125 +1411,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1149,871 +1715,3668 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L61"/>
+  <dimension ref="B2:L230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O200" sqref="O200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="63"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="63"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="63"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="63"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="63"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="63"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="63"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="63"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="15"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="63"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="63"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="63"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="63"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="63"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="63"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="63"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="63"/>
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="63"/>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="15"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="63"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="15"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="63"/>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="18"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="66"/>
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22" t="s">
+      <c r="C29" s="68"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="23"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="71"/>
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="2:12" ht="41.25" x14ac:dyDescent="0.3">
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="43"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="35"/>
     </row>
     <row r="32" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="46"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="38"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="49"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="40"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="47"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="49"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="40"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="47"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="49"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="40"/>
     </row>
     <row r="36" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="50"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="52"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="43"/>
     </row>
     <row r="37" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="33" t="s">
+      <c r="C37" s="25"/>
+      <c r="D37" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="31" t="s">
+      <c r="E37" s="44"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="32"/>
-      <c r="I37" s="35" t="s">
+      <c r="H37" s="47"/>
+      <c r="I37" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="J37" s="35"/>
-      <c r="K37" s="36"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="49"/>
     </row>
     <row r="38" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="37"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="26"/>
     </row>
     <row r="39" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="40"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="51"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28" t="s">
+      <c r="C40" s="20"/>
+      <c r="D40" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28" t="s">
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="55"/>
+      <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="27"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="55"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="21"/>
     </row>
     <row r="42" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="26"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="23"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28" t="s">
+      <c r="C43" s="31"/>
+      <c r="D43" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28" t="s">
+      <c r="E43" s="31"/>
+      <c r="F43" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28" t="s">
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="K43" s="55"/>
+      <c r="K43" s="32"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="27"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="55"/>
-    </row>
-    <row r="45" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B45" s="24" t="s">
+      <c r="B44" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44" s="18"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" s="21"/>
+    </row>
+    <row r="46" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="26"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="56"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="58"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="23"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="56"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="58"/>
+      <c r="B47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="9"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="56"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="58"/>
-    </row>
-    <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="59"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="61"/>
-    </row>
-    <row r="50" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="29" t="s">
+      <c r="B48" s="10"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="9"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B49" s="10"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="9"/>
+    </row>
+    <row r="50" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="13"/>
+    </row>
+    <row r="51" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="37"/>
-    </row>
-    <row r="51" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B51" s="38" t="s">
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="26"/>
+    </row>
+    <row r="52" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B52" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="54"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="27" t="s">
-        <v>6</v>
-      </c>
       <c r="C52" s="28"/>
-      <c r="D52" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="D52" s="28"/>
       <c r="E52" s="28"/>
       <c r="F52" s="28"/>
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
       <c r="I52" s="28"/>
-      <c r="J52" s="28" t="s">
+      <c r="J52" s="28"/>
+      <c r="K52" s="29"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B53" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K52" s="55"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="27"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="55"/>
-    </row>
-    <row r="54" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B54" s="24" t="s">
+      <c r="K53" s="21"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B54" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K54" s="21"/>
+    </row>
+    <row r="55" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B55" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="62"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="62"/>
-      <c r="H54" s="62"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="63"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="27" t="s">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B56" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28" t="s">
+      <c r="C56" s="20"/>
+      <c r="D56" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28" t="s">
+      <c r="E56" s="20"/>
+      <c r="F56" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28" t="s">
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K55" s="55"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="27"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="55"/>
-    </row>
-    <row r="57" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B57" s="24" t="s">
+      <c r="K56" s="21"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B57" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="15"/>
+      <c r="F57" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K57" s="18"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B58" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K58" s="18"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B59" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="F59" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K59" s="18"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B60" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K60" s="21"/>
+    </row>
+    <row r="61" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B61" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="62"/>
-      <c r="K57" s="63"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="56"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="58"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="56"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="57"/>
-      <c r="J59" s="57"/>
-      <c r="K59" s="58"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="56"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="58"/>
-    </row>
-    <row r="61" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="59"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="61"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="6"/>
+    </row>
+    <row r="62" spans="2:11" ht="195.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="9"/>
+    </row>
+    <row r="63" spans="2:11" ht="225.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="10"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="9"/>
+    </row>
+    <row r="64" spans="2:11" ht="237" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="10"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="9"/>
+    </row>
+    <row r="65" spans="2:11" ht="231" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="11"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="13"/>
+    </row>
+    <row r="66" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="67" spans="2:11" ht="41.25" x14ac:dyDescent="0.3">
+      <c r="B67" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="35"/>
+    </row>
+    <row r="68" spans="2:11" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B68" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="38"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B69" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="40"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B70" s="7"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="40"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B71" s="7"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="40"/>
+    </row>
+    <row r="72" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="41"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="43"/>
+    </row>
+    <row r="73" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="25"/>
+      <c r="D73" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="44"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73" s="47"/>
+      <c r="I73" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="J73" s="48"/>
+      <c r="K73" s="49"/>
+    </row>
+    <row r="74" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="26"/>
+    </row>
+    <row r="75" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B75" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="50"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="51"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B76" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" s="21"/>
+    </row>
+    <row r="77" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="23"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B78" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78" s="32"/>
+    </row>
+    <row r="79" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="23"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B80" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="9"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B81" s="10"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="9"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B82" s="10"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="9"/>
+    </row>
+    <row r="83" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="11"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="13"/>
+    </row>
+    <row r="84" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="26"/>
+    </row>
+    <row r="85" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B85" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="29"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B86" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K86" s="21"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B87" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K87" s="21"/>
+    </row>
+    <row r="88" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B88" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="6"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B89" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K89" s="21"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B90" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="15"/>
+      <c r="F90" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K90" s="18"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B91" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" s="15"/>
+      <c r="D91" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="15"/>
+      <c r="F91" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K91" s="18"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B92" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="15"/>
+      <c r="F92" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K92" s="18"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B93" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K93" s="21"/>
+    </row>
+    <row r="94" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B94" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="6"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B95" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="9"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B96" s="10"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="9"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B97" s="10"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="9"/>
+    </row>
+    <row r="98" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="11"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="13"/>
+    </row>
+    <row r="99" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="100" spans="2:11" ht="41.25" x14ac:dyDescent="0.3">
+      <c r="B100" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="34"/>
+      <c r="I100" s="34"/>
+      <c r="J100" s="34"/>
+      <c r="K100" s="35"/>
+    </row>
+    <row r="101" spans="2:11" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B101" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" s="37"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="37"/>
+      <c r="K101" s="38"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B102" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C102" s="39"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="39"/>
+      <c r="J102" s="39"/>
+      <c r="K102" s="40"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B103" s="7"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="39"/>
+      <c r="F103" s="39"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="39"/>
+      <c r="I103" s="39"/>
+      <c r="J103" s="39"/>
+      <c r="K103" s="40"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B104" s="7"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="39"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="39"/>
+      <c r="J104" s="39"/>
+      <c r="K104" s="40"/>
+    </row>
+    <row r="105" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B105" s="41"/>
+      <c r="C105" s="42"/>
+      <c r="D105" s="42"/>
+      <c r="E105" s="42"/>
+      <c r="F105" s="42"/>
+      <c r="G105" s="42"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="42"/>
+      <c r="J105" s="42"/>
+      <c r="K105" s="43"/>
+    </row>
+    <row r="106" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B106" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="25"/>
+      <c r="D106" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" s="44"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H106" s="47"/>
+      <c r="I106" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="J106" s="48"/>
+      <c r="K106" s="49"/>
+    </row>
+    <row r="107" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B107" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="25"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="25"/>
+      <c r="K107" s="26"/>
+    </row>
+    <row r="108" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B108" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="50"/>
+      <c r="D108" s="50"/>
+      <c r="E108" s="50"/>
+      <c r="F108" s="50"/>
+      <c r="G108" s="50"/>
+      <c r="H108" s="50"/>
+      <c r="I108" s="50"/>
+      <c r="J108" s="50"/>
+      <c r="K108" s="51"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B109" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K109" s="21"/>
+    </row>
+    <row r="110" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="23"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B111" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="31"/>
+      <c r="D111" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="31"/>
+      <c r="F111" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" s="31"/>
+      <c r="H111" s="31"/>
+      <c r="I111" s="31"/>
+      <c r="J111" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K111" s="32"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B112" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C112" s="73"/>
+      <c r="D112" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E112" s="73"/>
+      <c r="F112" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="G112" s="73"/>
+      <c r="H112" s="73"/>
+      <c r="I112" s="73"/>
+      <c r="J112" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="K112" s="74"/>
+    </row>
+    <row r="113" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B113" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="22"/>
+      <c r="J113" s="22"/>
+      <c r="K113" s="23"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B114" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="9"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B115" s="10"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="9"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B116" s="10"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="9"/>
+    </row>
+    <row r="117" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B117" s="11"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="13"/>
+    </row>
+    <row r="118" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B118" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="25"/>
+      <c r="K118" s="26"/>
+    </row>
+    <row r="119" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B119" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="28"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="28"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="28"/>
+      <c r="H119" s="28"/>
+      <c r="I119" s="28"/>
+      <c r="J119" s="28"/>
+      <c r="K119" s="29"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B120" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K120" s="21"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B121" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121" s="20"/>
+      <c r="D121" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="20"/>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K121" s="21"/>
+    </row>
+    <row r="122" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B122" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="6"/>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B123" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="20"/>
+      <c r="D123" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" s="20"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K123" s="21"/>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B124" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C124" s="15"/>
+      <c r="D124" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" s="15"/>
+      <c r="F124" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K124" s="18"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B125" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C125" s="15"/>
+      <c r="D125" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E125" s="15"/>
+      <c r="F125" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G125" s="17"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K125" s="18"/>
+    </row>
+    <row r="126" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B126" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="6"/>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B127" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="9"/>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B128" s="10"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="9"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B129" s="10"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="9"/>
+    </row>
+    <row r="130" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B130" s="11"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="13"/>
+    </row>
+    <row r="131" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="132" spans="2:11" ht="41.25" x14ac:dyDescent="0.3">
+      <c r="B132" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C132" s="34"/>
+      <c r="D132" s="34"/>
+      <c r="E132" s="34"/>
+      <c r="F132" s="34"/>
+      <c r="G132" s="34"/>
+      <c r="H132" s="34"/>
+      <c r="I132" s="34"/>
+      <c r="J132" s="34"/>
+      <c r="K132" s="35"/>
+    </row>
+    <row r="133" spans="2:11" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B133" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" s="37"/>
+      <c r="D133" s="37"/>
+      <c r="E133" s="37"/>
+      <c r="F133" s="37"/>
+      <c r="G133" s="37"/>
+      <c r="H133" s="37"/>
+      <c r="I133" s="37"/>
+      <c r="J133" s="37"/>
+      <c r="K133" s="38"/>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B134" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C134" s="39"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="39"/>
+      <c r="F134" s="39"/>
+      <c r="G134" s="39"/>
+      <c r="H134" s="39"/>
+      <c r="I134" s="39"/>
+      <c r="J134" s="39"/>
+      <c r="K134" s="40"/>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B135" s="7"/>
+      <c r="C135" s="39"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="39"/>
+      <c r="F135" s="39"/>
+      <c r="G135" s="39"/>
+      <c r="H135" s="39"/>
+      <c r="I135" s="39"/>
+      <c r="J135" s="39"/>
+      <c r="K135" s="40"/>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B136" s="7"/>
+      <c r="C136" s="39"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="39"/>
+      <c r="F136" s="39"/>
+      <c r="G136" s="39"/>
+      <c r="H136" s="39"/>
+      <c r="I136" s="39"/>
+      <c r="J136" s="39"/>
+      <c r="K136" s="40"/>
+    </row>
+    <row r="137" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B137" s="41"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="42"/>
+      <c r="E137" s="42"/>
+      <c r="F137" s="42"/>
+      <c r="G137" s="42"/>
+      <c r="H137" s="42"/>
+      <c r="I137" s="42"/>
+      <c r="J137" s="42"/>
+      <c r="K137" s="43"/>
+    </row>
+    <row r="138" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B138" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="25"/>
+      <c r="D138" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138" s="44"/>
+      <c r="F138" s="45"/>
+      <c r="G138" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H138" s="47"/>
+      <c r="I138" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="J138" s="48"/>
+      <c r="K138" s="49"/>
+    </row>
+    <row r="139" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B139" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" s="25"/>
+      <c r="D139" s="25"/>
+      <c r="E139" s="25"/>
+      <c r="F139" s="25"/>
+      <c r="G139" s="25"/>
+      <c r="H139" s="25"/>
+      <c r="I139" s="25"/>
+      <c r="J139" s="25"/>
+      <c r="K139" s="26"/>
+    </row>
+    <row r="140" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B140" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="50"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="50"/>
+      <c r="F140" s="50"/>
+      <c r="G140" s="50"/>
+      <c r="H140" s="50"/>
+      <c r="I140" s="50"/>
+      <c r="J140" s="50"/>
+      <c r="K140" s="51"/>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B141" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" s="20"/>
+      <c r="D141" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="20"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="20"/>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K141" s="21"/>
+    </row>
+    <row r="142" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="22"/>
+      <c r="D142" s="22"/>
+      <c r="E142" s="22"/>
+      <c r="F142" s="22"/>
+      <c r="G142" s="22"/>
+      <c r="H142" s="22"/>
+      <c r="I142" s="22"/>
+      <c r="J142" s="22"/>
+      <c r="K142" s="23"/>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B143" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="31"/>
+      <c r="D143" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="31"/>
+      <c r="F143" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G143" s="31"/>
+      <c r="H143" s="31"/>
+      <c r="I143" s="31"/>
+      <c r="J143" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K143" s="32"/>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B144" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="C144" s="77"/>
+      <c r="D144" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E144" s="77"/>
+      <c r="F144" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="G144" s="73"/>
+      <c r="H144" s="73"/>
+      <c r="I144" s="77"/>
+      <c r="J144" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="K144" s="74"/>
+    </row>
+    <row r="145" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B145" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" s="22"/>
+      <c r="D145" s="22"/>
+      <c r="E145" s="22"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="22"/>
+      <c r="H145" s="22"/>
+      <c r="I145" s="22"/>
+      <c r="J145" s="22"/>
+      <c r="K145" s="23"/>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B146" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="9"/>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B147" s="10"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="9"/>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B148" s="10"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="9"/>
+    </row>
+    <row r="149" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B149" s="11"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="12"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="13"/>
+    </row>
+    <row r="150" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B150" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" s="25"/>
+      <c r="D150" s="25"/>
+      <c r="E150" s="25"/>
+      <c r="F150" s="25"/>
+      <c r="G150" s="25"/>
+      <c r="H150" s="25"/>
+      <c r="I150" s="25"/>
+      <c r="J150" s="25"/>
+      <c r="K150" s="26"/>
+    </row>
+    <row r="151" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B151" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="28"/>
+      <c r="D151" s="28"/>
+      <c r="E151" s="28"/>
+      <c r="F151" s="28"/>
+      <c r="G151" s="28"/>
+      <c r="H151" s="28"/>
+      <c r="I151" s="28"/>
+      <c r="J151" s="28"/>
+      <c r="K151" s="29"/>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B152" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="20"/>
+      <c r="D152" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K152" s="21"/>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B153" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C153" s="20"/>
+      <c r="D153" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K153" s="21"/>
+    </row>
+    <row r="154" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B154" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="6"/>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B155" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" s="20"/>
+      <c r="F155" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G155" s="20"/>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
+      <c r="J155" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K155" s="21"/>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B156" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C156" s="15"/>
+      <c r="D156" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E156" s="15"/>
+      <c r="F156" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G156" s="17"/>
+      <c r="H156" s="17"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K156" s="18"/>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B157" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C157" s="15"/>
+      <c r="D157" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E157" s="15"/>
+      <c r="F157" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G157" s="17"/>
+      <c r="H157" s="17"/>
+      <c r="I157" s="15"/>
+      <c r="J157" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K157" s="18"/>
+    </row>
+    <row r="158" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B158" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="6"/>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B159" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="8"/>
+      <c r="J159" s="8"/>
+      <c r="K159" s="9"/>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B160" s="10"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="8"/>
+      <c r="K160" s="9"/>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B161" s="10"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="8"/>
+      <c r="J161" s="8"/>
+      <c r="K161" s="9"/>
+    </row>
+    <row r="162" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B162" s="11"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+      <c r="J162" s="12"/>
+      <c r="K162" s="13"/>
+    </row>
+    <row r="163" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="164" spans="2:11" ht="41.25" x14ac:dyDescent="0.3">
+      <c r="B164" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C164" s="34"/>
+      <c r="D164" s="34"/>
+      <c r="E164" s="34"/>
+      <c r="F164" s="34"/>
+      <c r="G164" s="34"/>
+      <c r="H164" s="34"/>
+      <c r="I164" s="34"/>
+      <c r="J164" s="34"/>
+      <c r="K164" s="35"/>
+    </row>
+    <row r="165" spans="2:11" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B165" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" s="37"/>
+      <c r="D165" s="37"/>
+      <c r="E165" s="37"/>
+      <c r="F165" s="37"/>
+      <c r="G165" s="37"/>
+      <c r="H165" s="37"/>
+      <c r="I165" s="37"/>
+      <c r="J165" s="37"/>
+      <c r="K165" s="38"/>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B166" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C166" s="39"/>
+      <c r="D166" s="39"/>
+      <c r="E166" s="39"/>
+      <c r="F166" s="39"/>
+      <c r="G166" s="39"/>
+      <c r="H166" s="39"/>
+      <c r="I166" s="39"/>
+      <c r="J166" s="39"/>
+      <c r="K166" s="40"/>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B167" s="7"/>
+      <c r="C167" s="39"/>
+      <c r="D167" s="39"/>
+      <c r="E167" s="39"/>
+      <c r="F167" s="39"/>
+      <c r="G167" s="39"/>
+      <c r="H167" s="39"/>
+      <c r="I167" s="39"/>
+      <c r="J167" s="39"/>
+      <c r="K167" s="40"/>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B168" s="7"/>
+      <c r="C168" s="39"/>
+      <c r="D168" s="39"/>
+      <c r="E168" s="39"/>
+      <c r="F168" s="39"/>
+      <c r="G168" s="39"/>
+      <c r="H168" s="39"/>
+      <c r="I168" s="39"/>
+      <c r="J168" s="39"/>
+      <c r="K168" s="40"/>
+    </row>
+    <row r="169" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B169" s="41"/>
+      <c r="C169" s="42"/>
+      <c r="D169" s="42"/>
+      <c r="E169" s="42"/>
+      <c r="F169" s="42"/>
+      <c r="G169" s="42"/>
+      <c r="H169" s="42"/>
+      <c r="I169" s="42"/>
+      <c r="J169" s="42"/>
+      <c r="K169" s="43"/>
+    </row>
+    <row r="170" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B170" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" s="25"/>
+      <c r="D170" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E170" s="44"/>
+      <c r="F170" s="45"/>
+      <c r="G170" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H170" s="47"/>
+      <c r="I170" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="J170" s="48"/>
+      <c r="K170" s="49"/>
+    </row>
+    <row r="171" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B171" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171" s="25"/>
+      <c r="D171" s="25"/>
+      <c r="E171" s="25"/>
+      <c r="F171" s="25"/>
+      <c r="G171" s="25"/>
+      <c r="H171" s="25"/>
+      <c r="I171" s="25"/>
+      <c r="J171" s="25"/>
+      <c r="K171" s="26"/>
+    </row>
+    <row r="172" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B172" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" s="50"/>
+      <c r="D172" s="50"/>
+      <c r="E172" s="50"/>
+      <c r="F172" s="50"/>
+      <c r="G172" s="50"/>
+      <c r="H172" s="50"/>
+      <c r="I172" s="50"/>
+      <c r="J172" s="50"/>
+      <c r="K172" s="51"/>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B173" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173" s="20"/>
+      <c r="D173" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" s="20"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="20"/>
+      <c r="H173" s="20"/>
+      <c r="I173" s="20"/>
+      <c r="J173" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K173" s="21"/>
+    </row>
+    <row r="174" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B174" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" s="22"/>
+      <c r="D174" s="22"/>
+      <c r="E174" s="22"/>
+      <c r="F174" s="22"/>
+      <c r="G174" s="22"/>
+      <c r="H174" s="22"/>
+      <c r="I174" s="22"/>
+      <c r="J174" s="22"/>
+      <c r="K174" s="23"/>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B175" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" s="31"/>
+      <c r="D175" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" s="31"/>
+      <c r="F175" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G175" s="31"/>
+      <c r="H175" s="31"/>
+      <c r="I175" s="31"/>
+      <c r="J175" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K175" s="32"/>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B176" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="C176" s="77"/>
+      <c r="D176" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E176" s="77"/>
+      <c r="F176" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="G176" s="73"/>
+      <c r="H176" s="73"/>
+      <c r="I176" s="77"/>
+      <c r="J176" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="K176" s="74"/>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B177" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C177" s="77"/>
+      <c r="D177" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E177" s="77"/>
+      <c r="F177" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="G177" s="75"/>
+      <c r="H177" s="75"/>
+      <c r="I177" s="79"/>
+      <c r="J177" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="K177" s="74"/>
+    </row>
+    <row r="178" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B178" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178" s="22"/>
+      <c r="D178" s="22"/>
+      <c r="E178" s="22"/>
+      <c r="F178" s="22"/>
+      <c r="G178" s="22"/>
+      <c r="H178" s="22"/>
+      <c r="I178" s="22"/>
+      <c r="J178" s="22"/>
+      <c r="K178" s="23"/>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B179" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8"/>
+      <c r="H179" s="8"/>
+      <c r="I179" s="8"/>
+      <c r="J179" s="8"/>
+      <c r="K179" s="9"/>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B180" s="10"/>
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="8"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="8"/>
+      <c r="H180" s="8"/>
+      <c r="I180" s="8"/>
+      <c r="J180" s="8"/>
+      <c r="K180" s="9"/>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B181" s="10"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8"/>
+      <c r="H181" s="8"/>
+      <c r="I181" s="8"/>
+      <c r="J181" s="8"/>
+      <c r="K181" s="9"/>
+    </row>
+    <row r="182" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B182" s="11"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="12"/>
+      <c r="J182" s="12"/>
+      <c r="K182" s="13"/>
+    </row>
+    <row r="183" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B183" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" s="25"/>
+      <c r="D183" s="25"/>
+      <c r="E183" s="25"/>
+      <c r="F183" s="25"/>
+      <c r="G183" s="25"/>
+      <c r="H183" s="25"/>
+      <c r="I183" s="25"/>
+      <c r="J183" s="25"/>
+      <c r="K183" s="26"/>
+    </row>
+    <row r="184" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B184" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" s="28"/>
+      <c r="D184" s="28"/>
+      <c r="E184" s="28"/>
+      <c r="F184" s="28"/>
+      <c r="G184" s="28"/>
+      <c r="H184" s="28"/>
+      <c r="I184" s="28"/>
+      <c r="J184" s="28"/>
+      <c r="K184" s="29"/>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B185" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" s="20"/>
+      <c r="D185" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E185" s="20"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="20"/>
+      <c r="H185" s="20"/>
+      <c r="I185" s="20"/>
+      <c r="J185" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K185" s="21"/>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B186" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C186" s="20"/>
+      <c r="D186" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E186" s="20"/>
+      <c r="F186" s="20"/>
+      <c r="G186" s="20"/>
+      <c r="H186" s="20"/>
+      <c r="I186" s="20"/>
+      <c r="J186" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K186" s="21"/>
+    </row>
+    <row r="187" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B187" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
+      <c r="J187" s="5"/>
+      <c r="K187" s="6"/>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B188" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" s="20"/>
+      <c r="D188" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188" s="20"/>
+      <c r="F188" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G188" s="20"/>
+      <c r="H188" s="20"/>
+      <c r="I188" s="20"/>
+      <c r="J188" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K188" s="21"/>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B189" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C189" s="15"/>
+      <c r="D189" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E189" s="15"/>
+      <c r="F189" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G189" s="17"/>
+      <c r="H189" s="17"/>
+      <c r="I189" s="15"/>
+      <c r="J189" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K189" s="18"/>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B190" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C190" s="15"/>
+      <c r="D190" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E190" s="15"/>
+      <c r="F190" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G190" s="17"/>
+      <c r="H190" s="17"/>
+      <c r="I190" s="15"/>
+      <c r="J190" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K190" s="18"/>
+    </row>
+    <row r="191" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B191" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5"/>
+      <c r="K191" s="6"/>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B192" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C192" s="8"/>
+      <c r="D192" s="8"/>
+      <c r="E192" s="8"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="8"/>
+      <c r="H192" s="8"/>
+      <c r="I192" s="8"/>
+      <c r="J192" s="8"/>
+      <c r="K192" s="9"/>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B193" s="10"/>
+      <c r="C193" s="8"/>
+      <c r="D193" s="8"/>
+      <c r="E193" s="8"/>
+      <c r="F193" s="8"/>
+      <c r="G193" s="8"/>
+      <c r="H193" s="8"/>
+      <c r="I193" s="8"/>
+      <c r="J193" s="8"/>
+      <c r="K193" s="9"/>
+    </row>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B194" s="10"/>
+      <c r="C194" s="8"/>
+      <c r="D194" s="8"/>
+      <c r="E194" s="8"/>
+      <c r="F194" s="8"/>
+      <c r="G194" s="8"/>
+      <c r="H194" s="8"/>
+      <c r="I194" s="8"/>
+      <c r="J194" s="8"/>
+      <c r="K194" s="9"/>
+    </row>
+    <row r="195" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B195" s="11"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="12"/>
+      <c r="I195" s="12"/>
+      <c r="J195" s="12"/>
+      <c r="K195" s="13"/>
+    </row>
+    <row r="196" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="197" spans="2:11" ht="41.25" x14ac:dyDescent="0.3">
+      <c r="B197" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C197" s="34"/>
+      <c r="D197" s="34"/>
+      <c r="E197" s="34"/>
+      <c r="F197" s="34"/>
+      <c r="G197" s="34"/>
+      <c r="H197" s="34"/>
+      <c r="I197" s="34"/>
+      <c r="J197" s="34"/>
+      <c r="K197" s="35"/>
+    </row>
+    <row r="198" spans="2:11" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B198" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C198" s="37"/>
+      <c r="D198" s="37"/>
+      <c r="E198" s="37"/>
+      <c r="F198" s="37"/>
+      <c r="G198" s="37"/>
+      <c r="H198" s="37"/>
+      <c r="I198" s="37"/>
+      <c r="J198" s="37"/>
+      <c r="K198" s="38"/>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B199" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C199" s="39"/>
+      <c r="D199" s="39"/>
+      <c r="E199" s="39"/>
+      <c r="F199" s="39"/>
+      <c r="G199" s="39"/>
+      <c r="H199" s="39"/>
+      <c r="I199" s="39"/>
+      <c r="J199" s="39"/>
+      <c r="K199" s="40"/>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B200" s="7"/>
+      <c r="C200" s="39"/>
+      <c r="D200" s="39"/>
+      <c r="E200" s="39"/>
+      <c r="F200" s="39"/>
+      <c r="G200" s="39"/>
+      <c r="H200" s="39"/>
+      <c r="I200" s="39"/>
+      <c r="J200" s="39"/>
+      <c r="K200" s="40"/>
+    </row>
+    <row r="201" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B201" s="7"/>
+      <c r="C201" s="39"/>
+      <c r="D201" s="39"/>
+      <c r="E201" s="39"/>
+      <c r="F201" s="39"/>
+      <c r="G201" s="39"/>
+      <c r="H201" s="39"/>
+      <c r="I201" s="39"/>
+      <c r="J201" s="39"/>
+      <c r="K201" s="40"/>
+    </row>
+    <row r="202" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B202" s="41"/>
+      <c r="C202" s="42"/>
+      <c r="D202" s="42"/>
+      <c r="E202" s="42"/>
+      <c r="F202" s="42"/>
+      <c r="G202" s="42"/>
+      <c r="H202" s="42"/>
+      <c r="I202" s="42"/>
+      <c r="J202" s="42"/>
+      <c r="K202" s="43"/>
+    </row>
+    <row r="203" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B203" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203" s="25"/>
+      <c r="D203" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E203" s="44"/>
+      <c r="F203" s="45"/>
+      <c r="G203" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H203" s="47"/>
+      <c r="I203" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="J203" s="48"/>
+      <c r="K203" s="49"/>
+    </row>
+    <row r="204" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B204" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C204" s="25"/>
+      <c r="D204" s="25"/>
+      <c r="E204" s="25"/>
+      <c r="F204" s="25"/>
+      <c r="G204" s="25"/>
+      <c r="H204" s="25"/>
+      <c r="I204" s="25"/>
+      <c r="J204" s="25"/>
+      <c r="K204" s="26"/>
+    </row>
+    <row r="205" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B205" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" s="50"/>
+      <c r="D205" s="50"/>
+      <c r="E205" s="50"/>
+      <c r="F205" s="50"/>
+      <c r="G205" s="50"/>
+      <c r="H205" s="50"/>
+      <c r="I205" s="50"/>
+      <c r="J205" s="50"/>
+      <c r="K205" s="51"/>
+    </row>
+    <row r="206" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B206" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C206" s="20"/>
+      <c r="D206" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E206" s="20"/>
+      <c r="F206" s="20"/>
+      <c r="G206" s="20"/>
+      <c r="H206" s="20"/>
+      <c r="I206" s="20"/>
+      <c r="J206" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K206" s="21"/>
+    </row>
+    <row r="207" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" s="22"/>
+      <c r="D207" s="22"/>
+      <c r="E207" s="22"/>
+      <c r="F207" s="22"/>
+      <c r="G207" s="22"/>
+      <c r="H207" s="22"/>
+      <c r="I207" s="22"/>
+      <c r="J207" s="22"/>
+      <c r="K207" s="23"/>
+    </row>
+    <row r="208" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B208" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" s="31"/>
+      <c r="D208" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208" s="31"/>
+      <c r="F208" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G208" s="31"/>
+      <c r="H208" s="31"/>
+      <c r="I208" s="31"/>
+      <c r="J208" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K208" s="32"/>
+    </row>
+    <row r="209" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B209" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C209" s="77"/>
+      <c r="D209" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E209" s="77"/>
+      <c r="F209" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="G209" s="73"/>
+      <c r="H209" s="73"/>
+      <c r="I209" s="77"/>
+      <c r="J209" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="K209" s="74"/>
+    </row>
+    <row r="210" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B210" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C210" s="77"/>
+      <c r="D210" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E210" s="77"/>
+      <c r="F210" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="G210" s="75"/>
+      <c r="H210" s="75"/>
+      <c r="I210" s="79"/>
+      <c r="J210" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="K210" s="74"/>
+    </row>
+    <row r="211" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B211" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="C211" s="77"/>
+      <c r="D211" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E211" s="77"/>
+      <c r="F211" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="G211" s="75"/>
+      <c r="H211" s="75"/>
+      <c r="I211" s="79"/>
+      <c r="J211" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="K211" s="74"/>
+    </row>
+    <row r="212" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B212" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C212" s="77"/>
+      <c r="D212" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="E212" s="77"/>
+      <c r="F212" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="G212" s="75"/>
+      <c r="H212" s="75"/>
+      <c r="I212" s="79"/>
+      <c r="J212" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="K212" s="74"/>
+    </row>
+    <row r="213" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B213" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" s="22"/>
+      <c r="D213" s="22"/>
+      <c r="E213" s="22"/>
+      <c r="F213" s="22"/>
+      <c r="G213" s="22"/>
+      <c r="H213" s="22"/>
+      <c r="I213" s="22"/>
+      <c r="J213" s="22"/>
+      <c r="K213" s="23"/>
+    </row>
+    <row r="214" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B214" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C214" s="8"/>
+      <c r="D214" s="8"/>
+      <c r="E214" s="8"/>
+      <c r="F214" s="8"/>
+      <c r="G214" s="8"/>
+      <c r="H214" s="8"/>
+      <c r="I214" s="8"/>
+      <c r="J214" s="8"/>
+      <c r="K214" s="9"/>
+    </row>
+    <row r="215" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B215" s="10"/>
+      <c r="C215" s="8"/>
+      <c r="D215" s="8"/>
+      <c r="E215" s="8"/>
+      <c r="F215" s="8"/>
+      <c r="G215" s="8"/>
+      <c r="H215" s="8"/>
+      <c r="I215" s="8"/>
+      <c r="J215" s="8"/>
+      <c r="K215" s="9"/>
+    </row>
+    <row r="216" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B216" s="10"/>
+      <c r="C216" s="8"/>
+      <c r="D216" s="8"/>
+      <c r="E216" s="8"/>
+      <c r="F216" s="8"/>
+      <c r="G216" s="8"/>
+      <c r="H216" s="8"/>
+      <c r="I216" s="8"/>
+      <c r="J216" s="8"/>
+      <c r="K216" s="9"/>
+    </row>
+    <row r="217" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B217" s="11"/>
+      <c r="C217" s="12"/>
+      <c r="D217" s="12"/>
+      <c r="E217" s="12"/>
+      <c r="F217" s="12"/>
+      <c r="G217" s="12"/>
+      <c r="H217" s="12"/>
+      <c r="I217" s="12"/>
+      <c r="J217" s="12"/>
+      <c r="K217" s="13"/>
+    </row>
+    <row r="218" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B218" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C218" s="25"/>
+      <c r="D218" s="25"/>
+      <c r="E218" s="25"/>
+      <c r="F218" s="25"/>
+      <c r="G218" s="25"/>
+      <c r="H218" s="25"/>
+      <c r="I218" s="25"/>
+      <c r="J218" s="25"/>
+      <c r="K218" s="26"/>
+    </row>
+    <row r="219" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B219" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C219" s="28"/>
+      <c r="D219" s="28"/>
+      <c r="E219" s="28"/>
+      <c r="F219" s="28"/>
+      <c r="G219" s="28"/>
+      <c r="H219" s="28"/>
+      <c r="I219" s="28"/>
+      <c r="J219" s="28"/>
+      <c r="K219" s="29"/>
+    </row>
+    <row r="220" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B220" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C220" s="20"/>
+      <c r="D220" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E220" s="20"/>
+      <c r="F220" s="20"/>
+      <c r="G220" s="20"/>
+      <c r="H220" s="20"/>
+      <c r="I220" s="20"/>
+      <c r="J220" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K220" s="21"/>
+    </row>
+    <row r="221" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B221" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C221" s="20"/>
+      <c r="D221" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E221" s="20"/>
+      <c r="F221" s="20"/>
+      <c r="G221" s="20"/>
+      <c r="H221" s="20"/>
+      <c r="I221" s="20"/>
+      <c r="J221" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K221" s="21"/>
+    </row>
+    <row r="222" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B222" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="5"/>
+      <c r="H222" s="5"/>
+      <c r="I222" s="5"/>
+      <c r="J222" s="5"/>
+      <c r="K222" s="6"/>
+    </row>
+    <row r="223" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B223" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C223" s="20"/>
+      <c r="D223" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E223" s="20"/>
+      <c r="F223" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G223" s="20"/>
+      <c r="H223" s="20"/>
+      <c r="I223" s="20"/>
+      <c r="J223" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K223" s="21"/>
+    </row>
+    <row r="224" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B224" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C224" s="15"/>
+      <c r="D224" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E224" s="15"/>
+      <c r="F224" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G224" s="17"/>
+      <c r="H224" s="17"/>
+      <c r="I224" s="15"/>
+      <c r="J224" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K224" s="18"/>
+    </row>
+    <row r="225" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B225" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C225" s="15"/>
+      <c r="D225" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E225" s="15"/>
+      <c r="F225" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G225" s="17"/>
+      <c r="H225" s="17"/>
+      <c r="I225" s="15"/>
+      <c r="J225" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K225" s="18"/>
+    </row>
+    <row r="226" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B226" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
+      <c r="I226" s="5"/>
+      <c r="J226" s="5"/>
+      <c r="K226" s="6"/>
+    </row>
+    <row r="227" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B227" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C227" s="8"/>
+      <c r="D227" s="8"/>
+      <c r="E227" s="8"/>
+      <c r="F227" s="8"/>
+      <c r="G227" s="8"/>
+      <c r="H227" s="8"/>
+      <c r="I227" s="8"/>
+      <c r="J227" s="8"/>
+      <c r="K227" s="9"/>
+    </row>
+    <row r="228" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B228" s="10"/>
+      <c r="C228" s="8"/>
+      <c r="D228" s="8"/>
+      <c r="E228" s="8"/>
+      <c r="F228" s="8"/>
+      <c r="G228" s="8"/>
+      <c r="H228" s="8"/>
+      <c r="I228" s="8"/>
+      <c r="J228" s="8"/>
+      <c r="K228" s="9"/>
+    </row>
+    <row r="229" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B229" s="10"/>
+      <c r="C229" s="8"/>
+      <c r="D229" s="8"/>
+      <c r="E229" s="8"/>
+      <c r="F229" s="8"/>
+      <c r="G229" s="8"/>
+      <c r="H229" s="8"/>
+      <c r="I229" s="8"/>
+      <c r="J229" s="8"/>
+      <c r="K229" s="9"/>
+    </row>
+    <row r="230" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B230" s="11"/>
+      <c r="C230" s="12"/>
+      <c r="D230" s="12"/>
+      <c r="E230" s="12"/>
+      <c r="F230" s="12"/>
+      <c r="G230" s="12"/>
+      <c r="H230" s="12"/>
+      <c r="I230" s="12"/>
+      <c r="J230" s="12"/>
+      <c r="K230" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="B57:K57"/>
-    <mergeCell ref="B58:K61"/>
-    <mergeCell ref="B54:K54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="J55:K55"/>
+  <mergeCells count="316">
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="F210:I210"/>
+    <mergeCell ref="J210:K210"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="F225:I225"/>
+    <mergeCell ref="J225:K225"/>
+    <mergeCell ref="B226:K226"/>
+    <mergeCell ref="B227:K230"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="F211:I211"/>
+    <mergeCell ref="J211:K211"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="D221:I221"/>
+    <mergeCell ref="J221:K221"/>
+    <mergeCell ref="B222:K222"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="F223:I223"/>
+    <mergeCell ref="J223:K223"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="D224:E224"/>
+    <mergeCell ref="F224:I224"/>
+    <mergeCell ref="J224:K224"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="F212:I212"/>
+    <mergeCell ref="J212:K212"/>
+    <mergeCell ref="B213:K213"/>
+    <mergeCell ref="B214:K217"/>
+    <mergeCell ref="B218:K218"/>
+    <mergeCell ref="B219:K219"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="D220:I220"/>
+    <mergeCell ref="J220:K220"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="D206:I206"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="B207:K207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="F208:I208"/>
+    <mergeCell ref="J208:K208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="F209:I209"/>
+    <mergeCell ref="J209:K209"/>
+    <mergeCell ref="B197:K197"/>
+    <mergeCell ref="B198:K198"/>
+    <mergeCell ref="B199:K202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="D203:F203"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="I203:K203"/>
+    <mergeCell ref="B204:K204"/>
+    <mergeCell ref="B205:K205"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="F190:I190"/>
+    <mergeCell ref="J190:K190"/>
+    <mergeCell ref="B191:K191"/>
+    <mergeCell ref="B192:K195"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="F177:I177"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="B187:K187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="F188:I188"/>
+    <mergeCell ref="J188:K188"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="F189:I189"/>
+    <mergeCell ref="J189:K189"/>
+    <mergeCell ref="B178:K178"/>
+    <mergeCell ref="B179:K182"/>
+    <mergeCell ref="B183:K183"/>
+    <mergeCell ref="B184:K184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D185:I185"/>
+    <mergeCell ref="J185:K185"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="D186:I186"/>
+    <mergeCell ref="J186:K186"/>
+    <mergeCell ref="B174:K174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="F175:I175"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="F176:I176"/>
+    <mergeCell ref="J176:K176"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="D170:F170"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="I170:K170"/>
+    <mergeCell ref="B171:K171"/>
+    <mergeCell ref="B172:K172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="D173:I173"/>
+    <mergeCell ref="J173:K173"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="F157:I157"/>
+    <mergeCell ref="J157:K157"/>
+    <mergeCell ref="B158:K158"/>
+    <mergeCell ref="B159:K162"/>
+    <mergeCell ref="B164:K164"/>
+    <mergeCell ref="B165:K165"/>
+    <mergeCell ref="B166:K169"/>
+    <mergeCell ref="B154:K154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="F155:I155"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="F156:I156"/>
+    <mergeCell ref="J156:K156"/>
+    <mergeCell ref="B145:K145"/>
+    <mergeCell ref="B146:K149"/>
+    <mergeCell ref="B150:K150"/>
+    <mergeCell ref="B151:K151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="B142:K142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="F143:I143"/>
+    <mergeCell ref="J143:K143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="F144:I144"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="I138:K138"/>
+    <mergeCell ref="B139:K139"/>
+    <mergeCell ref="B140:K140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="D141:I141"/>
+    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="B126:K126"/>
+    <mergeCell ref="B127:K130"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:I112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="B132:K132"/>
+    <mergeCell ref="B133:K133"/>
+    <mergeCell ref="B134:K137"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="F125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="B122:K122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="F123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="F124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="B114:K117"/>
+    <mergeCell ref="B118:K118"/>
+    <mergeCell ref="B119:K119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="D120:I120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:I109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="B110:K110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="B113:K113"/>
+    <mergeCell ref="B100:K100"/>
+    <mergeCell ref="B101:K101"/>
+    <mergeCell ref="B102:K105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="I106:K106"/>
+    <mergeCell ref="B107:K107"/>
+    <mergeCell ref="B108:K108"/>
+    <mergeCell ref="B61:K61"/>
+    <mergeCell ref="B62:K65"/>
+    <mergeCell ref="B55:K55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="F56:I56"/>
     <mergeCell ref="J56:K56"/>
-    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B47:K50"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D41:I41"/>
     <mergeCell ref="J40:K40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="J41:K41"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B33:K36"/>
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="B42:K42"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="F44:I44"/>
     <mergeCell ref="J44:K44"/>
-    <mergeCell ref="B45:K45"/>
-    <mergeCell ref="B46:K49"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="B42:K42"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="F59:I59"/>
     <mergeCell ref="B39:K39"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B4:K28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="E29:K29"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B33:K36"/>
+    <mergeCell ref="B52:K52"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="B67:K67"/>
+    <mergeCell ref="B68:K68"/>
+    <mergeCell ref="B69:K72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:K73"/>
+    <mergeCell ref="B74:K74"/>
+    <mergeCell ref="B75:K75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B77:K77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="B79:K79"/>
+    <mergeCell ref="B80:K83"/>
+    <mergeCell ref="B84:K84"/>
+    <mergeCell ref="B85:K85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:I86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:I87"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="B88:K88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="B94:K94"/>
+    <mergeCell ref="B95:K98"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="J93:K93"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
